--- a/Configurations_reformat.xlsx
+++ b/Configurations_reformat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cce1d1199b24a628/Code/DE Assignments/Configuration YAMLs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1288" documentId="8_{83D129DF-F8EA-41A8-8C00-F9633753BFE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F4AD645C-8914-4E2B-BCC7-EA65604BB59F}"/>
+  <xr:revisionPtr revIDLastSave="1320" documentId="8_{83D129DF-F8EA-41A8-8C00-F9633753BFE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{01385F11-DE66-4747-8B10-E959236A02CC}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1335,10 +1335,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CB55"/>
+  <dimension ref="A1:CB61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BH1" workbookViewId="0">
-      <selection activeCell="BZ2" sqref="BZ2"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="AI1" sqref="AI1"/>
+      <selection pane="bottomLeft" activeCell="W60" sqref="W60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12686,7 +12688,7 @@
         <v>0.8340277777777777</v>
       </c>
     </row>
-    <row r="49" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -12915,8 +12917,11 @@
       <c r="BY49" s="5">
         <v>8</v>
       </c>
+      <c r="CA49" s="34">
+        <v>0.83611111111111114</v>
+      </c>
     </row>
-    <row r="50" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A50" s="28">
         <v>49</v>
       </c>
@@ -13149,7 +13154,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -13379,7 +13384,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -13608,8 +13613,11 @@
       <c r="BY52" s="20">
         <v>8</v>
       </c>
+      <c r="CA52" s="34">
+        <v>0.83819444444444446</v>
+      </c>
     </row>
-    <row r="53" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A53" s="28">
         <v>52</v>
       </c>
@@ -13842,7 +13850,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -14072,7 +14080,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -14300,6 +14308,1320 @@
       </c>
       <c r="BY55" s="27">
         <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1">
+        <v>19</v>
+      </c>
+      <c r="C56" s="7">
+        <v>1</v>
+      </c>
+      <c r="D56" s="5">
+        <v>0</v>
+      </c>
+      <c r="E56" s="5">
+        <v>0</v>
+      </c>
+      <c r="F56" s="5">
+        <v>1</v>
+      </c>
+      <c r="G56" s="5">
+        <v>1</v>
+      </c>
+      <c r="H56" s="5">
+        <v>0</v>
+      </c>
+      <c r="I56" s="5">
+        <v>1</v>
+      </c>
+      <c r="J56" s="5">
+        <v>0</v>
+      </c>
+      <c r="K56" s="5">
+        <v>1</v>
+      </c>
+      <c r="L56" s="8">
+        <v>0</v>
+      </c>
+      <c r="M56" s="7">
+        <v>0</v>
+      </c>
+      <c r="N56" s="5">
+        <v>1</v>
+      </c>
+      <c r="O56" s="6">
+        <v>1</v>
+      </c>
+      <c r="P56" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="6">
+        <v>1</v>
+      </c>
+      <c r="R56" s="6">
+        <v>0</v>
+      </c>
+      <c r="S56" s="5">
+        <v>0</v>
+      </c>
+      <c r="T56" s="5">
+        <v>1</v>
+      </c>
+      <c r="U56" s="5">
+        <v>1</v>
+      </c>
+      <c r="V56" s="8">
+        <v>0</v>
+      </c>
+      <c r="W56" s="7">
+        <v>1</v>
+      </c>
+      <c r="X56" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y56" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z56" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA56" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB56" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC56" s="5">
+        <v>1</v>
+      </c>
+      <c r="AD56" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE56" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF56" s="8">
+        <v>1</v>
+      </c>
+      <c r="AG56" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH56" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI56" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ56" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK56" s="5">
+        <v>0</v>
+      </c>
+      <c r="AL56" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM56" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN56" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO56" s="5">
+        <v>0</v>
+      </c>
+      <c r="AP56" s="8">
+        <v>1</v>
+      </c>
+      <c r="AQ56" s="7">
+        <v>1</v>
+      </c>
+      <c r="AR56" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS56" s="5">
+        <v>1</v>
+      </c>
+      <c r="AT56" s="5">
+        <v>0</v>
+      </c>
+      <c r="AU56" s="5">
+        <v>1</v>
+      </c>
+      <c r="AV56" s="5">
+        <v>0</v>
+      </c>
+      <c r="AW56" s="5">
+        <v>1</v>
+      </c>
+      <c r="AX56" s="5">
+        <v>0</v>
+      </c>
+      <c r="AY56" s="5">
+        <v>0</v>
+      </c>
+      <c r="AZ56" s="5">
+        <v>1</v>
+      </c>
+      <c r="BA56" s="7">
+        <v>0</v>
+      </c>
+      <c r="BB56" s="5">
+        <v>1</v>
+      </c>
+      <c r="BC56" s="5">
+        <v>0</v>
+      </c>
+      <c r="BD56" s="5">
+        <v>0</v>
+      </c>
+      <c r="BE56" s="5">
+        <v>1</v>
+      </c>
+      <c r="BF56" s="5">
+        <v>0</v>
+      </c>
+      <c r="BG56" s="5">
+        <v>1</v>
+      </c>
+      <c r="BH56" s="5">
+        <v>0</v>
+      </c>
+      <c r="BI56" s="5">
+        <v>1</v>
+      </c>
+      <c r="BJ56" s="5">
+        <v>1</v>
+      </c>
+      <c r="BK56" s="8">
+        <v>0</v>
+      </c>
+      <c r="BL56" s="7">
+        <v>0</v>
+      </c>
+      <c r="BM56" s="5">
+        <v>1</v>
+      </c>
+      <c r="BN56" s="5">
+        <v>1</v>
+      </c>
+      <c r="BO56" s="5">
+        <v>0</v>
+      </c>
+      <c r="BP56" s="5">
+        <v>1</v>
+      </c>
+      <c r="BQ56" s="5">
+        <v>0</v>
+      </c>
+      <c r="BR56" s="5">
+        <v>1</v>
+      </c>
+      <c r="BS56" s="5">
+        <v>0</v>
+      </c>
+      <c r="BT56" s="5">
+        <v>1</v>
+      </c>
+      <c r="BU56" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="C57" s="7">
+        <v>1</v>
+      </c>
+      <c r="D57" s="5">
+        <v>0</v>
+      </c>
+      <c r="E57" s="5">
+        <v>0</v>
+      </c>
+      <c r="F57" s="5">
+        <v>1</v>
+      </c>
+      <c r="G57" s="5">
+        <v>1</v>
+      </c>
+      <c r="H57" s="5">
+        <v>0</v>
+      </c>
+      <c r="I57" s="5">
+        <v>1</v>
+      </c>
+      <c r="J57" s="5">
+        <v>0</v>
+      </c>
+      <c r="K57" s="5">
+        <v>1</v>
+      </c>
+      <c r="L57" s="8">
+        <v>0</v>
+      </c>
+      <c r="M57" s="7">
+        <v>0</v>
+      </c>
+      <c r="N57" s="5">
+        <v>1</v>
+      </c>
+      <c r="O57" s="6">
+        <v>1</v>
+      </c>
+      <c r="P57" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="6">
+        <v>1</v>
+      </c>
+      <c r="R57" s="6">
+        <v>0</v>
+      </c>
+      <c r="S57" s="5">
+        <v>0</v>
+      </c>
+      <c r="T57" s="5">
+        <v>1</v>
+      </c>
+      <c r="U57" s="5">
+        <v>1</v>
+      </c>
+      <c r="V57" s="8">
+        <v>0</v>
+      </c>
+      <c r="W57" s="7">
+        <v>1</v>
+      </c>
+      <c r="X57" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA57" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC57" s="5">
+        <v>1</v>
+      </c>
+      <c r="AD57" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE57" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF57" s="8">
+        <v>1</v>
+      </c>
+      <c r="AG57" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH57" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI57" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ57" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK57" s="5">
+        <v>0</v>
+      </c>
+      <c r="AL57" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM57" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN57" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO57" s="5">
+        <v>0</v>
+      </c>
+      <c r="AP57" s="8">
+        <v>1</v>
+      </c>
+      <c r="AQ57" s="7">
+        <v>1</v>
+      </c>
+      <c r="AR57" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS57" s="5">
+        <v>1</v>
+      </c>
+      <c r="AT57" s="5">
+        <v>0</v>
+      </c>
+      <c r="AU57" s="5">
+        <v>1</v>
+      </c>
+      <c r="AV57" s="5">
+        <v>0</v>
+      </c>
+      <c r="AW57" s="5">
+        <v>1</v>
+      </c>
+      <c r="AX57" s="5">
+        <v>0</v>
+      </c>
+      <c r="AY57" s="5">
+        <v>0</v>
+      </c>
+      <c r="AZ57" s="5">
+        <v>1</v>
+      </c>
+      <c r="BA57" s="7">
+        <v>0</v>
+      </c>
+      <c r="BB57" s="5">
+        <v>1</v>
+      </c>
+      <c r="BC57" s="5">
+        <v>0</v>
+      </c>
+      <c r="BD57" s="5">
+        <v>0</v>
+      </c>
+      <c r="BE57" s="5">
+        <v>1</v>
+      </c>
+      <c r="BF57" s="5">
+        <v>0</v>
+      </c>
+      <c r="BG57" s="5">
+        <v>1</v>
+      </c>
+      <c r="BH57" s="5">
+        <v>0</v>
+      </c>
+      <c r="BI57" s="5">
+        <v>1</v>
+      </c>
+      <c r="BJ57" s="5">
+        <v>1</v>
+      </c>
+      <c r="BK57" s="8">
+        <v>0</v>
+      </c>
+      <c r="BL57" s="7">
+        <v>0</v>
+      </c>
+      <c r="BM57" s="5">
+        <v>1</v>
+      </c>
+      <c r="BN57" s="5">
+        <v>1</v>
+      </c>
+      <c r="BO57" s="5">
+        <v>0</v>
+      </c>
+      <c r="BP57" s="5">
+        <v>1</v>
+      </c>
+      <c r="BQ57" s="5">
+        <v>0</v>
+      </c>
+      <c r="BR57" s="5">
+        <v>1</v>
+      </c>
+      <c r="BS57" s="5">
+        <v>0</v>
+      </c>
+      <c r="BT57" s="5">
+        <v>1</v>
+      </c>
+      <c r="BU57" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="C58" s="41">
+        <v>1</v>
+      </c>
+      <c r="D58" s="42">
+        <v>0</v>
+      </c>
+      <c r="E58" s="42">
+        <v>0</v>
+      </c>
+      <c r="F58" s="42">
+        <v>1</v>
+      </c>
+      <c r="G58" s="42">
+        <v>1</v>
+      </c>
+      <c r="H58" s="42">
+        <v>0</v>
+      </c>
+      <c r="I58" s="42">
+        <v>1</v>
+      </c>
+      <c r="J58" s="42">
+        <v>0</v>
+      </c>
+      <c r="K58" s="42">
+        <v>1</v>
+      </c>
+      <c r="L58" s="13">
+        <v>0</v>
+      </c>
+      <c r="M58" s="41">
+        <v>0</v>
+      </c>
+      <c r="N58" s="42">
+        <v>1</v>
+      </c>
+      <c r="O58" s="45">
+        <v>1</v>
+      </c>
+      <c r="P58" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="45">
+        <v>1</v>
+      </c>
+      <c r="R58" s="45">
+        <v>0</v>
+      </c>
+      <c r="S58" s="42">
+        <v>0</v>
+      </c>
+      <c r="T58" s="42">
+        <v>1</v>
+      </c>
+      <c r="U58" s="42">
+        <v>1</v>
+      </c>
+      <c r="V58" s="13">
+        <v>0</v>
+      </c>
+      <c r="W58" s="41">
+        <v>1</v>
+      </c>
+      <c r="X58" s="42">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="42">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="42">
+        <v>1</v>
+      </c>
+      <c r="AA58" s="42">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="42">
+        <v>1</v>
+      </c>
+      <c r="AC58" s="42">
+        <v>1</v>
+      </c>
+      <c r="AD58" s="42">
+        <v>0</v>
+      </c>
+      <c r="AE58" s="42">
+        <v>0</v>
+      </c>
+      <c r="AF58" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG58" s="41">
+        <v>0</v>
+      </c>
+      <c r="AH58" s="42">
+        <v>1</v>
+      </c>
+      <c r="AI58" s="42">
+        <v>0</v>
+      </c>
+      <c r="AJ58" s="42">
+        <v>1</v>
+      </c>
+      <c r="AK58" s="42">
+        <v>0</v>
+      </c>
+      <c r="AL58" s="42">
+        <v>1</v>
+      </c>
+      <c r="AM58" s="42">
+        <v>0</v>
+      </c>
+      <c r="AN58" s="42">
+        <v>1</v>
+      </c>
+      <c r="AO58" s="42">
+        <v>0</v>
+      </c>
+      <c r="AP58" s="13">
+        <v>1</v>
+      </c>
+      <c r="AQ58" s="41">
+        <v>1</v>
+      </c>
+      <c r="AR58" s="42">
+        <v>0</v>
+      </c>
+      <c r="AS58" s="42">
+        <v>1</v>
+      </c>
+      <c r="AT58" s="42">
+        <v>0</v>
+      </c>
+      <c r="AU58" s="42">
+        <v>1</v>
+      </c>
+      <c r="AV58" s="42">
+        <v>0</v>
+      </c>
+      <c r="AW58" s="42">
+        <v>1</v>
+      </c>
+      <c r="AX58" s="42">
+        <v>0</v>
+      </c>
+      <c r="AY58" s="42">
+        <v>0</v>
+      </c>
+      <c r="AZ58" s="42">
+        <v>1</v>
+      </c>
+      <c r="BA58" s="41">
+        <v>0</v>
+      </c>
+      <c r="BB58" s="42">
+        <v>1</v>
+      </c>
+      <c r="BC58" s="5">
+        <v>0</v>
+      </c>
+      <c r="BD58" s="42">
+        <v>0</v>
+      </c>
+      <c r="BE58" s="42">
+        <v>1</v>
+      </c>
+      <c r="BF58" s="42">
+        <v>0</v>
+      </c>
+      <c r="BG58" s="42">
+        <v>1</v>
+      </c>
+      <c r="BH58" s="42">
+        <v>0</v>
+      </c>
+      <c r="BI58" s="42">
+        <v>1</v>
+      </c>
+      <c r="BJ58" s="42">
+        <v>1</v>
+      </c>
+      <c r="BK58" s="13">
+        <v>0</v>
+      </c>
+      <c r="BL58" s="41">
+        <v>0</v>
+      </c>
+      <c r="BM58" s="42">
+        <v>1</v>
+      </c>
+      <c r="BN58" s="42">
+        <v>1</v>
+      </c>
+      <c r="BO58" s="42">
+        <v>0</v>
+      </c>
+      <c r="BP58" s="42">
+        <v>1</v>
+      </c>
+      <c r="BQ58" s="42">
+        <v>0</v>
+      </c>
+      <c r="BR58" s="42">
+        <v>1</v>
+      </c>
+      <c r="BS58" s="42">
+        <v>0</v>
+      </c>
+      <c r="BT58" s="42">
+        <v>1</v>
+      </c>
+      <c r="BU58" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1">
+        <v>20</v>
+      </c>
+      <c r="C59" s="7">
+        <v>1</v>
+      </c>
+      <c r="D59" s="5">
+        <v>0</v>
+      </c>
+      <c r="E59" s="5">
+        <v>0</v>
+      </c>
+      <c r="F59" s="5">
+        <v>1</v>
+      </c>
+      <c r="G59" s="5">
+        <v>1</v>
+      </c>
+      <c r="H59" s="5">
+        <v>0</v>
+      </c>
+      <c r="I59" s="5">
+        <v>1</v>
+      </c>
+      <c r="J59" s="5">
+        <v>0</v>
+      </c>
+      <c r="K59" s="5">
+        <v>1</v>
+      </c>
+      <c r="L59" s="8">
+        <v>0</v>
+      </c>
+      <c r="M59" s="7">
+        <v>0</v>
+      </c>
+      <c r="N59" s="5">
+        <v>1</v>
+      </c>
+      <c r="O59" s="6">
+        <v>1</v>
+      </c>
+      <c r="P59" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="6">
+        <v>1</v>
+      </c>
+      <c r="R59" s="6">
+        <v>0</v>
+      </c>
+      <c r="S59" s="5">
+        <v>0</v>
+      </c>
+      <c r="T59" s="5">
+        <v>1</v>
+      </c>
+      <c r="U59" s="5">
+        <v>1</v>
+      </c>
+      <c r="V59" s="8">
+        <v>0</v>
+      </c>
+      <c r="W59" s="7">
+        <v>0</v>
+      </c>
+      <c r="X59" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y59" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA59" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC59" s="5">
+        <v>1</v>
+      </c>
+      <c r="AD59" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE59" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF59" s="8">
+        <v>1</v>
+      </c>
+      <c r="AG59" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH59" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI59" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ59" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK59" s="5">
+        <v>0</v>
+      </c>
+      <c r="AL59" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM59" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN59" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO59" s="5">
+        <v>0</v>
+      </c>
+      <c r="AP59" s="8">
+        <v>1</v>
+      </c>
+      <c r="AQ59" s="7">
+        <v>1</v>
+      </c>
+      <c r="AR59" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS59" s="5">
+        <v>1</v>
+      </c>
+      <c r="AT59" s="5">
+        <v>0</v>
+      </c>
+      <c r="AU59" s="5">
+        <v>1</v>
+      </c>
+      <c r="AV59" s="5">
+        <v>0</v>
+      </c>
+      <c r="AW59" s="5">
+        <v>1</v>
+      </c>
+      <c r="AX59" s="5">
+        <v>0</v>
+      </c>
+      <c r="AY59" s="5">
+        <v>0</v>
+      </c>
+      <c r="AZ59" s="5">
+        <v>1</v>
+      </c>
+      <c r="BA59" s="7">
+        <v>1</v>
+      </c>
+      <c r="BB59" s="5">
+        <v>0</v>
+      </c>
+      <c r="BC59" s="5">
+        <v>0</v>
+      </c>
+      <c r="BD59" s="5">
+        <v>0</v>
+      </c>
+      <c r="BE59" s="5">
+        <v>1</v>
+      </c>
+      <c r="BF59" s="5">
+        <v>0</v>
+      </c>
+      <c r="BG59" s="5">
+        <v>1</v>
+      </c>
+      <c r="BH59" s="5">
+        <v>0</v>
+      </c>
+      <c r="BI59" s="5">
+        <v>1</v>
+      </c>
+      <c r="BJ59" s="5">
+        <v>1</v>
+      </c>
+      <c r="BK59" s="8">
+        <v>0</v>
+      </c>
+      <c r="BL59" s="7">
+        <v>0</v>
+      </c>
+      <c r="BM59" s="5">
+        <v>1</v>
+      </c>
+      <c r="BN59" s="5">
+        <v>1</v>
+      </c>
+      <c r="BO59" s="5">
+        <v>0</v>
+      </c>
+      <c r="BP59" s="5">
+        <v>1</v>
+      </c>
+      <c r="BQ59" s="5">
+        <v>0</v>
+      </c>
+      <c r="BR59" s="5">
+        <v>1</v>
+      </c>
+      <c r="BS59" s="5">
+        <v>0</v>
+      </c>
+      <c r="BT59" s="5">
+        <v>1</v>
+      </c>
+      <c r="BU59" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="C60" s="7">
+        <v>1</v>
+      </c>
+      <c r="D60" s="5">
+        <v>0</v>
+      </c>
+      <c r="E60" s="5">
+        <v>0</v>
+      </c>
+      <c r="F60" s="5">
+        <v>1</v>
+      </c>
+      <c r="G60" s="5">
+        <v>1</v>
+      </c>
+      <c r="H60" s="5">
+        <v>0</v>
+      </c>
+      <c r="I60" s="5">
+        <v>1</v>
+      </c>
+      <c r="J60" s="5">
+        <v>0</v>
+      </c>
+      <c r="K60" s="5">
+        <v>1</v>
+      </c>
+      <c r="L60" s="8">
+        <v>0</v>
+      </c>
+      <c r="M60" s="7">
+        <v>0</v>
+      </c>
+      <c r="N60" s="5">
+        <v>1</v>
+      </c>
+      <c r="O60" s="6">
+        <v>1</v>
+      </c>
+      <c r="P60" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="6">
+        <v>1</v>
+      </c>
+      <c r="R60" s="6">
+        <v>0</v>
+      </c>
+      <c r="S60" s="5">
+        <v>0</v>
+      </c>
+      <c r="T60" s="5">
+        <v>1</v>
+      </c>
+      <c r="U60" s="5">
+        <v>1</v>
+      </c>
+      <c r="V60" s="8">
+        <v>0</v>
+      </c>
+      <c r="W60" s="7">
+        <v>0</v>
+      </c>
+      <c r="X60" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y60" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z60" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA60" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB60" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC60" s="5">
+        <v>1</v>
+      </c>
+      <c r="AD60" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE60" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF60" s="8">
+        <v>1</v>
+      </c>
+      <c r="AG60" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH60" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI60" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ60" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK60" s="5">
+        <v>0</v>
+      </c>
+      <c r="AL60" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM60" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN60" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO60" s="5">
+        <v>0</v>
+      </c>
+      <c r="AP60" s="8">
+        <v>1</v>
+      </c>
+      <c r="AQ60" s="7">
+        <v>1</v>
+      </c>
+      <c r="AR60" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS60" s="5">
+        <v>1</v>
+      </c>
+      <c r="AT60" s="5">
+        <v>0</v>
+      </c>
+      <c r="AU60" s="5">
+        <v>1</v>
+      </c>
+      <c r="AV60" s="5">
+        <v>0</v>
+      </c>
+      <c r="AW60" s="5">
+        <v>1</v>
+      </c>
+      <c r="AX60" s="5">
+        <v>0</v>
+      </c>
+      <c r="AY60" s="5">
+        <v>0</v>
+      </c>
+      <c r="AZ60" s="5">
+        <v>1</v>
+      </c>
+      <c r="BA60" s="7">
+        <v>1</v>
+      </c>
+      <c r="BB60" s="5">
+        <v>0</v>
+      </c>
+      <c r="BC60" s="5">
+        <v>0</v>
+      </c>
+      <c r="BD60" s="5">
+        <v>0</v>
+      </c>
+      <c r="BE60" s="5">
+        <v>1</v>
+      </c>
+      <c r="BF60" s="5">
+        <v>0</v>
+      </c>
+      <c r="BG60" s="5">
+        <v>1</v>
+      </c>
+      <c r="BH60" s="5">
+        <v>0</v>
+      </c>
+      <c r="BI60" s="5">
+        <v>1</v>
+      </c>
+      <c r="BJ60" s="5">
+        <v>1</v>
+      </c>
+      <c r="BK60" s="8">
+        <v>0</v>
+      </c>
+      <c r="BL60" s="7">
+        <v>0</v>
+      </c>
+      <c r="BM60" s="5">
+        <v>1</v>
+      </c>
+      <c r="BN60" s="5">
+        <v>1</v>
+      </c>
+      <c r="BO60" s="5">
+        <v>0</v>
+      </c>
+      <c r="BP60" s="5">
+        <v>1</v>
+      </c>
+      <c r="BQ60" s="5">
+        <v>0</v>
+      </c>
+      <c r="BR60" s="5">
+        <v>1</v>
+      </c>
+      <c r="BS60" s="5">
+        <v>0</v>
+      </c>
+      <c r="BT60" s="5">
+        <v>1</v>
+      </c>
+      <c r="BU60" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="C61" s="41">
+        <v>1</v>
+      </c>
+      <c r="D61" s="42">
+        <v>0</v>
+      </c>
+      <c r="E61" s="42">
+        <v>0</v>
+      </c>
+      <c r="F61" s="42">
+        <v>1</v>
+      </c>
+      <c r="G61" s="42">
+        <v>1</v>
+      </c>
+      <c r="H61" s="42">
+        <v>0</v>
+      </c>
+      <c r="I61" s="42">
+        <v>1</v>
+      </c>
+      <c r="J61" s="42">
+        <v>0</v>
+      </c>
+      <c r="K61" s="42">
+        <v>1</v>
+      </c>
+      <c r="L61" s="13">
+        <v>0</v>
+      </c>
+      <c r="M61" s="41">
+        <v>0</v>
+      </c>
+      <c r="N61" s="42">
+        <v>1</v>
+      </c>
+      <c r="O61" s="45">
+        <v>1</v>
+      </c>
+      <c r="P61" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="45">
+        <v>1</v>
+      </c>
+      <c r="R61" s="45">
+        <v>0</v>
+      </c>
+      <c r="S61" s="42">
+        <v>0</v>
+      </c>
+      <c r="T61" s="42">
+        <v>1</v>
+      </c>
+      <c r="U61" s="42">
+        <v>1</v>
+      </c>
+      <c r="V61" s="13">
+        <v>0</v>
+      </c>
+      <c r="W61" s="41">
+        <v>0</v>
+      </c>
+      <c r="X61" s="42">
+        <v>1</v>
+      </c>
+      <c r="Y61" s="42">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="42">
+        <v>1</v>
+      </c>
+      <c r="AA61" s="42">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="42">
+        <v>1</v>
+      </c>
+      <c r="AC61" s="42">
+        <v>1</v>
+      </c>
+      <c r="AD61" s="42">
+        <v>0</v>
+      </c>
+      <c r="AE61" s="42">
+        <v>0</v>
+      </c>
+      <c r="AF61" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG61" s="41">
+        <v>0</v>
+      </c>
+      <c r="AH61" s="42">
+        <v>1</v>
+      </c>
+      <c r="AI61" s="42">
+        <v>0</v>
+      </c>
+      <c r="AJ61" s="42">
+        <v>1</v>
+      </c>
+      <c r="AK61" s="42">
+        <v>0</v>
+      </c>
+      <c r="AL61" s="42">
+        <v>1</v>
+      </c>
+      <c r="AM61" s="42">
+        <v>0</v>
+      </c>
+      <c r="AN61" s="42">
+        <v>1</v>
+      </c>
+      <c r="AO61" s="42">
+        <v>0</v>
+      </c>
+      <c r="AP61" s="13">
+        <v>1</v>
+      </c>
+      <c r="AQ61" s="41">
+        <v>1</v>
+      </c>
+      <c r="AR61" s="42">
+        <v>0</v>
+      </c>
+      <c r="AS61" s="42">
+        <v>1</v>
+      </c>
+      <c r="AT61" s="42">
+        <v>0</v>
+      </c>
+      <c r="AU61" s="42">
+        <v>1</v>
+      </c>
+      <c r="AV61" s="42">
+        <v>0</v>
+      </c>
+      <c r="AW61" s="42">
+        <v>1</v>
+      </c>
+      <c r="AX61" s="42">
+        <v>0</v>
+      </c>
+      <c r="AY61" s="42">
+        <v>0</v>
+      </c>
+      <c r="AZ61" s="42">
+        <v>1</v>
+      </c>
+      <c r="BA61" s="41">
+        <v>1</v>
+      </c>
+      <c r="BB61" s="42">
+        <v>0</v>
+      </c>
+      <c r="BC61" s="42">
+        <v>0</v>
+      </c>
+      <c r="BD61" s="42">
+        <v>0</v>
+      </c>
+      <c r="BE61" s="42">
+        <v>1</v>
+      </c>
+      <c r="BF61" s="42">
+        <v>0</v>
+      </c>
+      <c r="BG61" s="42">
+        <v>1</v>
+      </c>
+      <c r="BH61" s="42">
+        <v>0</v>
+      </c>
+      <c r="BI61" s="42">
+        <v>1</v>
+      </c>
+      <c r="BJ61" s="42">
+        <v>1</v>
+      </c>
+      <c r="BK61" s="13">
+        <v>0</v>
+      </c>
+      <c r="BL61" s="41">
+        <v>0</v>
+      </c>
+      <c r="BM61" s="42">
+        <v>1</v>
+      </c>
+      <c r="BN61" s="42">
+        <v>1</v>
+      </c>
+      <c r="BO61" s="42">
+        <v>0</v>
+      </c>
+      <c r="BP61" s="42">
+        <v>1</v>
+      </c>
+      <c r="BQ61" s="42">
+        <v>0</v>
+      </c>
+      <c r="BR61" s="42">
+        <v>1</v>
+      </c>
+      <c r="BS61" s="42">
+        <v>0</v>
+      </c>
+      <c r="BT61" s="42">
+        <v>1</v>
+      </c>
+      <c r="BU61" s="13">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
